--- a/Peaks-dataset-article/fixed_results.xlsx
+++ b/Peaks-dataset-article/fixed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,60 +536,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_9_9_10</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9732797356797771</v>
+        <v>0.9974994020737059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8541782991817186</v>
+        <v>0.787661299233386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9465042355310699</v>
+        <v>0.999698423285646</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9909804836969549</v>
+        <v>0.9845775309386978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9776391575830193</v>
+        <v>0.9964793075850636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1121392332853115</v>
+        <v>0.01049447456241024</v>
       </c>
       <c r="I2" t="n">
-        <v>0.611982483786513</v>
+        <v>0.8911401030844537</v>
       </c>
       <c r="J2" t="n">
-        <v>0.194188643582179</v>
+        <v>0.003001618048681997</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06874463549885293</v>
+        <v>0.04154340237868485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.131466639540516</v>
+        <v>0.02227245904183635</v>
       </c>
       <c r="M2" t="n">
-        <v>1.042652306780362</v>
+        <v>0.1170344426876959</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3348719655111659</v>
+        <v>0.1024425427369423</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12825726873707</v>
+        <v>1.001818616673668</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3491281583635085</v>
+        <v>0.1068037338665518</v>
       </c>
       <c r="Q2" t="n">
-        <v>62.37602805086089</v>
+        <v>123.1138127849576</v>
       </c>
       <c r="R2" t="n">
-        <v>97.72342697203871</v>
+        <v>192.589734802445</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
@@ -599,375 +599,6234 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_28_8_3</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9761204324182865</v>
+        <v>0.9973293448541923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8409989952457217</v>
+        <v>0.7826843990487019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9499001929926011</v>
+        <v>0.9992186093006387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9226586552272962</v>
+        <v>0.9788356700121651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9378120749056092</v>
+        <v>0.9948793908903988</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1002174367628336</v>
+        <v>0.01120816833363741</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6672932030557923</v>
+        <v>0.9120270884884716</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1834787410188265</v>
+        <v>0.007777246433958597</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2601918578070419</v>
+        <v>0.05701021498341392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2218353167148749</v>
+        <v>0.03239378600044721</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5047969091934529</v>
+        <v>0.1065289397041036</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3165713770428931</v>
+        <v>0.105868637157741</v>
       </c>
       <c r="O3" t="n">
-        <v>1.027290934379101</v>
+        <v>1.001942294651496</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3300484759567007</v>
+        <v>0.1103756842198371</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.60082617176373</v>
+        <v>122.9822249019981</v>
       </c>
       <c r="R3" t="n">
-        <v>149.4502382908328</v>
+        <v>192.4581469194856</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Hidden Size=[11], regularizer=0.05, learning_rate=0.1</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_24_8_1</t>
+          <t>model_18_9_1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9801699502374897</v>
+        <v>0.9965374078622785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.812491589299534</v>
+        <v>0.7772133709940998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.966253625993122</v>
+        <v>0.9967868774627651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9878671723677591</v>
+        <v>0.9988364863121262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9741986223669493</v>
+        <v>0.998279881850066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08322247675875269</v>
+        <v>0.01453175847553115</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7869326874354119</v>
+        <v>0.9349878228574494</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1841532013130732</v>
+        <v>0.008674747084374813</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02826687760408691</v>
+        <v>0.00511001623910918</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1062100587303905</v>
+        <v>0.006892381661370555</v>
       </c>
       <c r="M4" t="n">
-        <v>1.065269559979894</v>
+        <v>0.09245131242564175</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2884830614763243</v>
+        <v>0.1205477435522173</v>
       </c>
       <c r="O4" t="n">
-        <v>1.027995364370603</v>
+        <v>1.002518248827434</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3007643826456342</v>
+        <v>0.1256797105634655</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.97247562857885</v>
+        <v>122.4628375698844</v>
       </c>
       <c r="R4" t="n">
-        <v>136.9463844481751</v>
+        <v>191.9387595873718</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_30_7_24</t>
+          <t>model_18_9_0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9855884390305151</v>
+        <v>0.9965356677530511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8115932701200035</v>
+        <v>0.7772112740266997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9686967669770786</v>
+        <v>0.9968026000389545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.946622806639733</v>
+        <v>0.9988362451690449</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9634221546260893</v>
+        <v>0.9982850464779914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06048223843128056</v>
+        <v>0.01453906134170985</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7907027408611862</v>
+        <v>0.9349966233810391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2277967101827747</v>
+        <v>0.008632299474494298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1463209757773783</v>
+        <v>0.005111075311360633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1870586684091959</v>
+        <v>0.006871687392896911</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4512304277013252</v>
+        <v>0.09213708203279378</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2459313693518591</v>
+        <v>0.120578030095494</v>
       </c>
       <c r="O5" t="n">
-        <v>1.013835098530706</v>
+        <v>1.002519514361417</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2564011768932847</v>
+        <v>0.1257112864675912</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.6108110733931</v>
+        <v>122.4618327318539</v>
       </c>
       <c r="R5" t="n">
-        <v>163.3357264919349</v>
+        <v>191.9377547493413</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_34_6_1</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.976665737321168</v>
+        <v>0.9960872960218368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8443005559397172</v>
+        <v>0.7962299616123006</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9539348413483797</v>
+        <v>0.9999999991722165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9732050350271058</v>
+        <v>0.9931215337685871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9689509137223544</v>
+        <v>0.9985355657551247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09792890873844645</v>
+        <v>0.0164207815807998</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6534372591013242</v>
+        <v>0.8551792601101218</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1285947183450034</v>
+        <v>8.23899836285e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2597733814937316</v>
+        <v>0.01852847875809908</v>
       </c>
       <c r="L6" t="n">
-        <v>0.194184049915006</v>
+        <v>0.009264243476673577</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06767515379381381</v>
+        <v>0.1283785290944225</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3129359498978129</v>
+        <v>0.1281435975021765</v>
       </c>
       <c r="O6" t="n">
-        <v>1.008116265279594</v>
+        <v>1.00284560289321</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3262582811516828</v>
+        <v>0.1335989357416598</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.647026969186</v>
+        <v>122.2184151535455</v>
       </c>
       <c r="R6" t="n">
-        <v>304.0024786819286</v>
+        <v>191.694337171033</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_20_8_0</t>
+          <t>model_18_8_0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9959356189976901</v>
+        <v>0.9960855966108859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8245493178490272</v>
+        <v>0.7962347480766543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9979345736102139</v>
+        <v>0.9999999999999561</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986584927465649</v>
+        <v>0.9931302201904422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9982195977709823</v>
+        <v>0.9985374157229889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01705733760400981</v>
+        <v>0.01642791364501799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.73632898013304</v>
+        <v>0.8551591723431619</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01366707191020028</v>
+        <v>4.359283944553573e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003035479687395984</v>
+        <v>0.01850508020129735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00835127579879813</v>
+        <v>0.009252540286326685</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1008379364809752</v>
+        <v>0.1281544113178701</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1306037426876037</v>
+        <v>0.1281714228875453</v>
       </c>
       <c r="O7" t="n">
-        <v>1.00184047441614</v>
+        <v>1.002846838828447</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1361638144008333</v>
+        <v>0.1336279457112903</v>
       </c>
       <c r="Q7" t="n">
-        <v>162.1423496196472</v>
+        <v>122.2175466789494</v>
       </c>
       <c r="R7" t="n">
-        <v>255.9957881344987</v>
+        <v>191.6934686964368</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+          <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>model_13_9_6</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9950023516876826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7833714969000127</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9714051638279407</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9924986275263744</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9933918288705329</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02097406085720299</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9091434857922341</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.008660339917982072</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05749874480576561</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.03307949576699459</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3471848089960456</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1448242412623073</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.004135984810194</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1509897090403522</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>113.7289376040394</v>
+      </c>
+      <c r="R8" t="n">
+        <v>178.329356322054</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>model_13_9_5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9946467391617198</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7842076987871953</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9739949998515186</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9931697362869296</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9939839616785222</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02246649055513626</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9056341253541556</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007875972413266808</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05235463131243499</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03011536933448759</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3702343670367704</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1498882602312011</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.00443028483168</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1562693137807162</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>113.5914607771097</v>
+      </c>
+      <c r="R9" t="n">
+        <v>178.1918794951243</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>model_13_9_4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9941654837736642</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7850600888978628</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9767287074329383</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9938733974177043</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9946053963651396</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0244862164674332</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.902056826405137</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007048031425984929</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04696100075610589</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02700456217125366</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3958435172375815</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1564807223508161</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.00482856515283</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1631424306610411</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>113.4192898258247</v>
+      </c>
+      <c r="R10" t="n">
+        <v>178.0197085438394</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>model_13_9_3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9935244477459526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7859124507391042</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9795881692985932</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9946038456216659</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.995251170000772</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02717650754368706</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.898479646096852</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.006182004021943498</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0413620446955868</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.023771917945216</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4243055702615265</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1648529876698844</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.005359077727487</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1718711206477206</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>113.2108047442498</v>
+      </c>
+      <c r="R11" t="n">
+        <v>177.8112234622644</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>model_25_7_6</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9930715467947264</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7896278974237608</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9910723269187465</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9868275047443215</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9919081368518103</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02907723595026407</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8828867111791194</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03648188004982929</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0447520654039044</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04061697272686686</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4651245715398066</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1705204854270127</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.004055679925038</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1777798955177076</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>137.0755993613754</v>
+      </c>
+      <c r="R12" t="n">
+        <v>216.3025279778085</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>model_13_9_2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9926809662103333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7867423490565129</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9825460717683394</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9953528056731771</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.995914040308707</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03071641910897331</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8949967403926392</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005286162525314411</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.03562119353495379</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02045369038787814</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4559443148552438</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1752610028185772</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.006057131412138</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1827222265488547</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>112.9659158859201</v>
+      </c>
+      <c r="R13" t="n">
+        <v>177.5663346039347</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Hidden Size=[13], regularizer=0.5, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>117</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>model_24_9_0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9837278145051715</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7947261660865841</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9838359183154598</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9925151248706838</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9924727675142024</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06829088153463314</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8614903682358039</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002928269598221543</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.006496268095363055</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.004712263617327324</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4446770592470266</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2613252409061037</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.02297249716917</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2724503974293006</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>87.36795805479926</v>
+      </c>
+      <c r="R14" t="n">
+        <v>137.3418668743955</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>98</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>model_30_7_5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9866826703625732</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7943005189238346</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9892980783124798</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9780748973886413</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9865093950785158</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05588998361137255</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.863276718322344</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07787893829578819</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.06010249333381404</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.06899079393143524</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.018958440428399</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2364106249967893</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01278463645193</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2464751147403618</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>103.7687401978612</v>
+      </c>
+      <c r="R15" t="n">
+        <v>163.4936556164031</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>87</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>model_30_7_6</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9874581935416403</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7972084923044753</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9874662029278263</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9757671412021558</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9845875497145807</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0526352787307116</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8510725761248303</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.09120967591587135</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.06642866216745308</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.07881908838101714</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9544313014739256</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2294237972197122</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.012040134200025</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.2391908432400871</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>103.8887373715071</v>
+      </c>
+      <c r="R16" t="n">
+        <v>163.6136527900489</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>81</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>model_30_7_7</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9879634643618442</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.799619984750224</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9857342539261763</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9733694563866638</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9827126564926597</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05051476518713022</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8409520582025987</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1038132394037486</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0730013491096356</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.08840727013193383</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8958678606416661</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2247549002516524</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01155507421263</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2343231816621479</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>103.9709792109847</v>
+      </c>
+      <c r="R17" t="n">
+        <v>163.6958946295265</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>78</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>model_30_7_8</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9882599336312446</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8016261428425346</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9840979625558784</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9709579246576537</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.980902136637778</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04927054708491431</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8325326418515944</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1157206928856746</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.07961199409662978</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09766624724555401</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8428578077753279</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2219696985737339</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.011270463714005</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2314194081826382</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>104.0208575973479</v>
+      </c>
+      <c r="R18" t="n">
+        <v>163.7457730158897</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>76</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>model_30_7_9</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9883964684295107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8032994847884061</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9825532565271805</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9685874362267591</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9791677493020812</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04869753974446192</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.825509983670322</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1269616708153096</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08611012857021318</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1065358835569543</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7949672475978916</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2206751905957303</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.01113939030767</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2300697903200101</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>104.0442535375278</v>
+      </c>
+      <c r="R19" t="n">
+        <v>163.7691689560696</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>75</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>model_30_7_10</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9884121514766221</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8046986451690941</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.981097304790884</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9662963284092526</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9775177998438929</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04863172135069239</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8196380068645093</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1375567750165402</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.09239065983018552</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1149737055619464</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7517589497944706</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2205260105989595</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.011124334582443</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2299142594219315</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>104.0469585166086</v>
+      </c>
+      <c r="R20" t="n">
+        <v>163.7718739351504</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>223</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>model_9_9_0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9695953452583022</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8493755104463436</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9509375044582785</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9889886013118742</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9777166346032341</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1276018317101051</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6321387606841433</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.178095958709722</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08392629534825366</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1310111270289878</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.185842806070891</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.357213985882559</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.14594234276015</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.3724213247964698</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>62.11768110615922</v>
+      </c>
+      <c r="R21" t="n">
+        <v>97.46508002733704</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>220</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>model_9_9_1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9700638172745748</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8499455228850603</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9507813695442061</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9892765310585617</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9778550659964415</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1256357548745297</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6297465404173551</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1786627255833339</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.08173176242428416</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.130197244003809</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.170811737174611</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3544513434514387</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.143693677082041</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3695410709575985</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>62.14873678578335</v>
+      </c>
+      <c r="R22" t="n">
+        <v>97.49613570696116</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>214</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>model_9_9_2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9705082273946911</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8504938480825934</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9505545071463867</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9895431985191058</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9779578814230412</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1237706606697409</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6274453368624245</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1794862319253726</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.07969928565296192</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1295927587891673</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.155943518507769</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3518105465584295</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.141560508505483</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.3667878498736508</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>62.17864987312352</v>
+      </c>
+      <c r="R23" t="n">
+        <v>97.52604879430133</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>208</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>model_9_9_3</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9709293131405815</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8510211686259708</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9502596347410309</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9897892232202883</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9780263213552571</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.122003453873969</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6252322853476171</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1805566133470475</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.07782414314661738</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1291903782468324</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.141236914379576</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3492899281026709</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.139539296925209</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.364159923471831</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>62.20741184841449</v>
+      </c>
+      <c r="R24" t="n">
+        <v>97.55481076959231</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>207</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>model_9_9_4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9713278034606914</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8515281873771684</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9498994100638837</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9900152098241328</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9780615981878935</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1203310752465269</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6231044361115767</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1818642223163647</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.07610172631328087</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1289829743148228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.126689042805552</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3468876983211236</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.137626543388681</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3616554257951821</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62.23501674951551</v>
+      </c>
+      <c r="R25" t="n">
+        <v>97.58241567069332</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>205</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>model_9_9_5</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9717043345542274</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8520155915145105</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9494763189324775</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9902217801602654</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9780648823710928</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1187508547954418</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6210589052138805</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1834000353612856</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.07452729571354756</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1289636655374166</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.112298994689049</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3446024590676071</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.135819194139708</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3592728991755459</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>62.26145527563177</v>
+      </c>
+      <c r="R26" t="n">
+        <v>97.60885419680959</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>202</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>model_9_9_6</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9720595112408812</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8524839505633913</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9489928282701927</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9904094027464382</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9780372391479608</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1172602542218532</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6190933024782821</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1851550975951988</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07309728041511682</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1291261890051578</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.098064388599067</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3424328462952309</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.13411434604377</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.357010921495732</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>62.28671883885977</v>
+      </c>
+      <c r="R27" t="n">
+        <v>97.63411776003758</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>199</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>model_9_9_7</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.972394042694642</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8529338476989393</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9484514684188053</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9905785957123309</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9779797854969787</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1158562972742356</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6172051804435228</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.187120223923879</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.07180773135522592</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1294639776395525</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.083985100629448</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.3403766990765313</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.132508595065718</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.354867239833121</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>62.31080934488958</v>
+      </c>
+      <c r="R28" t="n">
+        <v>97.65820826606739</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>197</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>model_9_9_8</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9727085235947196</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8533658567544502</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9478546666566208</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9907298642949817</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9778935982233707</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1145364882111609</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6153921308540156</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1892866033716087</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.07065479773579821</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1299707005537035</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.070057020385656</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3384323982882858</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.130999086745346</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.3528401661350623</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>62.33372366484088</v>
+      </c>
+      <c r="R29" t="n">
+        <v>97.68112258601869</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>193</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>model_9_9_9</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9730035791679007</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8537805213397832</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9472049056540163</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9908637047683715</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9777797654225947</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1132982030895557</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6136518722954721</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1916452238904656</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.06963469707307528</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1306399604817705</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.056279409484813</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3365979843813027</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.129582819994077</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.3509276574302987</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>62.35546394166147</v>
+      </c>
+      <c r="R30" t="n">
+        <v>97.70286286283928</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>190</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>model_9_9_10</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9732797356797771</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8541782991817186</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9465042355310699</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9909804836969549</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9776391575830193</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1121392332853115</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.611982483786513</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.194188643582179</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.06874463549885293</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.131466639540516</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.042652306780362</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3348719655111659</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.12825726873707</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.3491281583635085</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>62.37602805086089</v>
+      </c>
+      <c r="R31" t="n">
+        <v>97.72342697203871</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>model_2_8_0</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9712945108608314</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8129240213262108</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9780684032418272</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9980705567627379</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.997501712804182</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.120470797166102</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7851178627264045</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005157254199723411</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01544100903824519</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01029915551254253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.100037623434118</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.3470890334857931</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01861977673892</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.3618653322146327</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>126.2326958051831</v>
+      </c>
+      <c r="R32" t="n">
+        <v>200.5841211221433</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Hidden Size=[15], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>model_12_6_0</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9571733156134731</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.762033580079305</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9995132597121</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9852074887911049</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9970325170030825</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1797344327773885</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9986941580274984</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003776911755907985</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.02993095689991668</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01685391445194601</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6534748032641972</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4239509792150367</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.022840898339481</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.4419994500997323</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>141.432549781972</v>
+      </c>
+      <c r="R33" t="n">
+        <v>225.5349816978778</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Hidden Size=[17], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>model_20_5_0</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9683607533239552</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7751070956945405</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9995225166280781</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9898125078264712</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9979528716447341</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1327831499515237</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9438274097099496</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.001282397790215578</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0071617888388869</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.004222093314551239</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1950974448616726</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.3643942232685965</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.014327206041983</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.3799072397531714</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>158.0380758657705</v>
+      </c>
+      <c r="R34" t="n">
+        <v>251.891514380622</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>model_20_5_1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9683706246701674</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7751171948523291</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9995226532318264</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9897947254427949</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9979499299685051</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1327417220231741</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9437850257051481</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001282030907607148</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.007174289822914369</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.004228160365260758</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1953719864502575</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.3643373739038779</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.014322735998415</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.3798479701933023</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>158.0386999568906</v>
+      </c>
+      <c r="R35" t="n">
+        <v>251.892138471742</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>model_20_8_1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.996284824657873</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8236386211250712</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.997684389192381</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9959288259899043</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9973847502838503</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01559179615118176</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7401509794649317</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01532255982603298</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.009212000889191382</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01226726820845704</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1062599907949282</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1248671139699391</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.001682343551152</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1301829655221992</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>162.3220207815977</v>
+      </c>
+      <c r="R36" t="n">
+        <v>256.1754592964492</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>114</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>model_20_8_0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9959356189976901</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8245493178490272</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9979345736102139</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9986584927465649</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9982195977709823</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01705733760400981</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.73632898013304</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01366707191020028</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.003035479687395984</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.00835127579879813</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1008379364809752</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1306037426876037</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.00184047441614</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.1361638144008333</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>162.1423496196472</v>
+      </c>
+      <c r="R37" t="n">
+        <v>255.9957881344987</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>model_22_9_14</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R38" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>model_22_9_0</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R39" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>model_22_9_22</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R40" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>model_22_9_21</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R41" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>model_22_9_20</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R42" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>30</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>model_22_9_19</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R43" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>model_22_9_18</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9979910659284981</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7654422006163015</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9995845906955427</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9999999999845786</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9997186216016796</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.008431066541825587</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9843889068144683</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.002173788386357681</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.364377241573353e-12</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.00108689419529705</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1521062382949707</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.09182083936572126</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.000845866977474</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.09572984259286077</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>171.551663995108</v>
+      </c>
+      <c r="R44" t="n">
+        <v>270.2806058094322</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>359</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>model_24_6_1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9908867843739317</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7699988732827707</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9999462129539248</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9973598169236039</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9989351001075806</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0382462164604251</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9652655264082624</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0001523421646077757</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.006262795324267057</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.003207571687194058</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3872744818499268</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1955663991089091</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.003837143421502</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.203892065597231</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>168.5274212793389</v>
+      </c>
+      <c r="R45" t="n">
+        <v>267.2563630936631</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>361</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>model_24_6_2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9908867843739317</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7699988732827707</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9999462129539248</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9973598169236039</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9989351001075806</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0382462164604251</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9652655264082624</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0001523421646077757</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.006262795324267057</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.003207571687194058</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3872744818499268</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1955663991089091</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.003837143421502</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.203892065597231</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>168.5274212793389</v>
+      </c>
+      <c r="R46" t="n">
+        <v>267.2563630936631</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>360</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>model_24_6_3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9908867843739317</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7699988732827707</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9999462129539248</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9973598169236039</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9989351001075806</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0382462164604251</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9652655264082624</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0001523421646077757</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.006262795324267057</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.003207571687194058</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.3872744818499268</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1955663991089091</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.003837143421502</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.203892065597231</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>168.5274212793389</v>
+      </c>
+      <c r="R47" t="n">
+        <v>267.2563630936631</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>358</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>model_24_6_4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9908867843739317</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7699988732827707</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9999462129539248</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9973598169236039</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9989351001075806</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0382462164604251</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9652655264082624</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0001523421646077757</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.006262795324267057</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.003207571687194058</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3872744818499268</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1955663991089091</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.003837143421502</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.203892065597231</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>168.5274212793389</v>
+      </c>
+      <c r="R48" t="n">
+        <v>267.2563630936631</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>357</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>model_24_6_5</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9908867843739317</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7699988732827707</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9999462129539248</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9973598169236039</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9989351001075806</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0382462164604251</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9652655264082624</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0001523421646077757</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.006262795324267057</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.003207571687194058</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.3872744818499268</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1955663991089091</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.003837143421502</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.203892065597231</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>168.5274212793389</v>
+      </c>
+      <c r="R49" t="n">
+        <v>267.2563630936631</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>model_24_91_11</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9975428472604969</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.785772938066487</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9980593185474894</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9952689234449547</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.998194175987477</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01031214440735317</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8990651509389221</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01259708662422746</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.004171791601269273</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.008384439112748368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.07072327876247046</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1015487292256933</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.001034590627159</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1058718688636799</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>171.1488660192541</v>
+      </c>
+      <c r="R50" t="n">
+        <v>269.8778078335783</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>model_24_91_7</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9975428472604969</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.785772938066487</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9980593185474894</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9952689234449547</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.998194175987477</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01031214440735317</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8990651509389221</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01259708662422746</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.004171791601269273</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.008384439112748368</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.07072327876247046</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1015487292256933</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.001034590627159</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.1058718688636799</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>171.1488660192541</v>
+      </c>
+      <c r="R51" t="n">
+        <v>269.8778078335783</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>model_24_91_8</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9975428472604969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.785772938066487</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9980593185474894</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9952689234449547</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.998194175987477</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01031214440735317</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8990651509389221</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01259708662422746</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.004171791601269273</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.008384439112748368</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.07072327876247046</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1015487292256933</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.001034590627159</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1058718688636799</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>171.1488660192541</v>
+      </c>
+      <c r="R52" t="n">
+        <v>269.8778078335783</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>85</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>model_4_7_2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9893822739106574</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8177694587306553</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9841950709187203</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9708373239217984</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9835284076258771</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.04456032502609616</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.764782598488201</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.02899634318189147</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.03420346145641381</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.03159990231915264</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8152152404916363</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2110931666968312</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.006887173679574</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.2200798398262108</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>128.2218227785345</v>
+      </c>
+      <c r="R53" t="n">
+        <v>202.5732480954948</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Hidden Size=[15], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>89</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>model_4_8_0</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.98873229720752</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8149619167861615</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9998351626214131</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9912006407532905</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9931868677873672</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0472881382045</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7765652514327535</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0001448875595164072</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.02606206227921246</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01310347476978492</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3387276763130908</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2174583597024957</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.007308780189717</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.2267160122758924</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>128.1029915857037</v>
+      </c>
+      <c r="R54" t="n">
+        <v>202.4544169026639</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Hidden Size=[15], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>76</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>model_4_8_1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.990481012974581</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8169840407388794</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9993933948620859</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9894663559604661</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9917505280975358</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.03994915221985368</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.768078829781077</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0005331893698866979</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.03119869064194032</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01586594000591351</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3343105518671319</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.19987284012555</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.006174478070542</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.2083818407235122</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>128.4402956560499</v>
+      </c>
+      <c r="R55" t="n">
+        <v>202.7917209730102</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Hidden Size=[15], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>280</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>model_6_5_6</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9605030589337884</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8192043291103566</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9494910690268713</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9472981746583152</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9528448947206825</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1657602123691552</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.758760754455703</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1562607686742314</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3994273311721069</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.2778440499231692</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.9240567542468705</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.4071366016082996</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.023120160624124</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.4244692496277163</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>133.5944260774545</v>
+      </c>
+      <c r="R56" t="n">
+        <v>212.8213546938876</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>15</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>model_20_81_0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9959356189976901</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8245493178490272</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9979345736102139</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9986584927465649</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9982195977709823</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01705733760400981</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.73632898013304</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01366707191020028</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.003035479687395984</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.00835127579879813</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1008379364809752</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1306037426876037</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.00184047441614</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.1361638144008333</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>162.1423496196472</v>
+      </c>
+      <c r="R57" t="n">
+        <v>255.9957881344987</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>model_20_81_1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.996284824657873</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8236386211250712</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.997684389192381</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9959288259899043</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9973847502838503</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01559179615118176</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.7401509794649317</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01532255982603298</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.009212000889191382</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01226726820845704</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.1062599907949282</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1248671139699391</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.001682343551152</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.1301829655221992</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>162.3220207815977</v>
+      </c>
+      <c r="R58" t="n">
+        <v>256.1754592964492</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>model_20_81_2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9963853075988429</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8226301733188517</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9974049748770236</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9918175924357792</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9961960521458485</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01517009074349644</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7443832191779245</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01717146403274478</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01851464603831951</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01784305655008807</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1113635693372018</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1231669222782499</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.001636841842033</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.1284103931503127</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>162.3768590077332</v>
+      </c>
+      <c r="R59" t="n">
+        <v>256.2302975225846</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>model_20_81_3</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.996299771899533</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8215658157683758</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9971081971512545</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9867505240207884</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9947645667778228</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01552906577548658</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7488501001272069</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01913526314923165</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.02998009522539314</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.02455767918731239</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1165356886883638</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1246156722707324</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.001675574988891</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.1299208194293011</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>162.3300835994981</v>
+      </c>
+      <c r="R60" t="n">
+        <v>256.1835221143496</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>model_20_81_4</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9960783143377027</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8204781164646834</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9968033142670046</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9810649822366897</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9931781903654718</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01645847578772584</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7534149414214124</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.02115269467031515</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.04284498772096618</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.03199884429277282</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1215565910211321</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1282905911894003</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.001775857658399</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.1337521872544676</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>162.2138293780193</v>
+      </c>
+      <c r="R61" t="n">
+        <v>256.0672678928707</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>model_20_9_6</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9962993254470779</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8162918396396319</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9902858295540363</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.980607357029417</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9852006122576979</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.01553093944093452</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.7709838497172052</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01577776851725441</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06363787355515367</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.03970783490966594</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1112866190113129</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1246231898200914</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.00167577715604</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.1299286570162998</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>162.3298423032797</v>
+      </c>
+      <c r="R62" t="n">
+        <v>256.1832808181312</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>model_20_9_7</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9962514363928746</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8163560391323537</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9898842899084639</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9794017699803894</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9843418214158953</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01573191955687787</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7707144181799706</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01642994974194915</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.06759406437979434</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.04201203326989684</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1153926834673894</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1254269490854253</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.001697462765491</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.13076663397757</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>162.3041270755386</v>
+      </c>
+      <c r="R63" t="n">
+        <v>256.15756559039</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Hidden Size=[19], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>173</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>model_34_6_0</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9766656867438889</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8443005309219538</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9539390221173958</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9732064388570254</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9689529348678825</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0979291210004673</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.6534373640955258</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.1285830473808772</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2597597715619534</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.1941714094713998</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.06757941518466225</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.3129362890437402</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.008116282871691</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.3262586347357543</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>190.647022634168</v>
+      </c>
+      <c r="R64" t="n">
+        <v>304.0024743469106</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>156</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>model_34_6_1</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.976665737321168</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8443005559397172</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9539348413483797</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9732050350271058</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9689509137223544</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.09792890873844645</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6534372591013242</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1285947183450034</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2597733814937316</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.194184049915006</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.06767515379381381</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.3129359498978129</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.008116265279594</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.3262582811516828</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>190.647026969186</v>
+      </c>
+      <c r="R65" t="n">
+        <v>304.0024786819286</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>149</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>model_34_6_2</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9780802592390818</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8436174914431109</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9565248568711301</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9718976908252829</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9685156573283282</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.09199246284707616</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6563039346706927</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1213644747855239</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.272447897934686</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.196906186360105</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.06936089631212747</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.3033025928789204</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.007624257655972</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.316214812180698</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>190.7720972617289</v>
+      </c>
+      <c r="R66" t="n">
+        <v>304.1275489744716</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>139</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>model_34_6_3</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.979097070439742</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.842683788159408</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9585130645240725</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9705184506837051</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9678903630191903</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.08772512375673419</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6602224876122207</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1158142279042508</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2858194353049348</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.2008168386817688</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.07077977165072037</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2961842733109478</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.007270584194872</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.3087934510117638</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>190.8670938935576</v>
+      </c>
+      <c r="R67" t="n">
+        <v>304.2225456063002</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>78</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>model_2_9_0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.995257199803295</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7994228354889445</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9974821168933619</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9996702385255781</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.999333207560456</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.01990451783373288</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.8417794514775192</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.003016070958155615</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.00212664427165714</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.002571357679657295</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1810409353146681</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1410833719250177</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.00669571792476</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.1470895831507071</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>89.83361709239526</v>
+      </c>
+      <c r="R68" t="n">
+        <v>139.8075259119915</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>model_2_9_1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9955474608683083</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8009411566511866</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9971103340324311</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9991085745435486</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9988058203075352</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.01868635423725435</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.8354073823627004</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.003461414702127337</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.005748836621668372</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.004605125884765003</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1870603427503613</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.1366980403563063</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.006285937597682</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.1425175589382279</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>89.95992348285941</v>
+      </c>
+      <c r="R69" t="n">
+        <v>139.9338323024556</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>model_2_9_2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9957248063671968</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8022645444824458</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9966472264237575</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9982815875099617</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9980423949256659</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01794207311661777</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8298534067373845</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.00401615269029649</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01108210740715373</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.007549130048725111</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.1923021242800788</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1339480239369651</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.006035567481604</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.1396504686265965</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>90.04121374137588</v>
+      </c>
+      <c r="R70" t="n">
+        <v>140.0151225609721</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>model_2_9_3</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9958060998801087</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8034127812029158</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9961063459512154</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9972382716003153</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9970860032252127</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.01760090163344109</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.8250345028552808</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.004664051665736182</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.01781049132970954</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01123727196197559</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.1968139882454952</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1326683897295851</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.005920800169258</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.1383163577418004</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>90.07961029815482</v>
+      </c>
+      <c r="R71" t="n">
+        <v>140.0535191177511</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>model_2_9_4</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9958065802395843</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8044043966345901</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9954993638263334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9960227598078983</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9959753608610681</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.01759888566748134</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8208729050174305</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.005391131153322264</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.02564937303961031</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.01552025209646629</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.2006545641626252</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1326607917490369</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.005920122014704</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.1383084362994902</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>90.07983938658023</v>
+      </c>
+      <c r="R72" t="n">
+        <v>140.0537482061765</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>model_2_9_5</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9957397800008984</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8052565698766524</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9948362264241613</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9946742886766747</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9947448205705303</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0178792319791703</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.8172965162195545</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.006185476790212755</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.03434571457477489</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.02026559568249382</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.203868477391652</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.1337132453393092</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.006014428234026</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.1394056950179797</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>90.04823092868887</v>
+      </c>
+      <c r="R73" t="n">
+        <v>140.0221397482851</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>model_2_9_6</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9956176566384667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8059850587770523</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9941257032009602</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9932271109314258</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9934243854771941</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0183917576063566</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8142392041447684</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.007036583997271787</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.04367861881229766</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.02535760140478472</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.2065115176470218</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1356162143932524</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.006186837686871</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.1413896774042383</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>89.99170534181162</v>
+      </c>
+      <c r="R74" t="n">
+        <v>139.9656141614078</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>model_4_8_13</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9947933361768441</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.823003679902226</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9895771331602596</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9628235642311784</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.968992518143396</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0218512542430647</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.7428156919489773</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.009161415648083038</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1101096747116538</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0596356776152395</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.301235536563852</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1478216974705158</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.003377295452858</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1541147731649339</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>129.6469939133188</v>
-      </c>
-      <c r="R8" t="n">
-        <v>203.998419230279</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.05, learning_rate=0.1</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>model_2_9_7</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9954507372424043</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8066043703488117</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9933751893052709</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9917112207708559</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9920402842984879</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.01909228260381012</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.811640085962795</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0079355944233368</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0534546520256666</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0306951232245017</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.2086410354137491</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1381748262304321</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.006422488598959</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.1440572146443834</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>89.91694215547432</v>
+      </c>
+      <c r="R75" t="n">
+        <v>139.8908509750705</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>model_2_9_8</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9952480718913682</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8071275598992489</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.992591537740259</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9901518486055046</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9906146783801097</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.01994282572742331</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.8094443713416447</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.008874299131396637</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0635111023391553</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.03619270014497922</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2103104688676875</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.1412190699849822</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.006708604388657</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.147231058158018</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>89.82977162596578</v>
+      </c>
+      <c r="R76" t="n">
+        <v>139.803680445562</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Hidden Size=[10], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>model_10_9_0</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9958891949713362</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8046912705169801</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9986781940613109</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9842574208532341</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.994516285711358</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.01725216931147164</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.8196689567018276</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.003687509164984623</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.01789702585548589</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01079228633613399</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.3965855487566761</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.1313475135336472</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.003946372827517</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.1369392491116107</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>106.1196347724496</v>
+      </c>
+      <c r="R77" t="n">
+        <v>165.8445501909914</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>model_10_9_1</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9960023288079927</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.8053154715148015</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9982376676000254</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9805503000135926</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9931333459047502</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01677737080090181</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8170493186446303</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.004916468209471132</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.02211148378502443</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.01351399676686553</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.3893741165947939</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1295274905219035</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.003837764344327</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.1350417439522901</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>106.1754485533951</v>
+      </c>
+      <c r="R78" t="n">
+        <v>165.9003639719369</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>model_10_9_2</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9960622514532295</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8058553116756429</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9977497039353265</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9764530348441014</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9916041188185365</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.01652588827764686</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.8147837249735543</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.006277765229774553</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.02676947914852423</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.01652360954366063</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.3831741787105876</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.1285530562750138</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.0037802386049</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.1340258260221533</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>106.2056542822499</v>
+      </c>
+      <c r="R79" t="n">
+        <v>165.9305697007917</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>model_10_9_3</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9960762705398402</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8063203393076797</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9972236977063672</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9720419239718716</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9899572138824827</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0164670531701402</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.8128321034817856</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.007745191523871897</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.03178427148945588</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01976481955255889</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.3774334311597217</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1283240163419934</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.003766780281753</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.1337870353850062</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>106.2127873437219</v>
+      </c>
+      <c r="R80" t="n">
+        <v>165.9377027622638</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Hidden Size=[12], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>12</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>model_18_81_0</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9955075045892138</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8051055312329622</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9828196755333832</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.998219380322393</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9972250717048021</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.01885404219306562</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.8179303930965525</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01094229542776815</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.016022400320556</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.01348233765078067</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3028808220757659</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1373100221872592</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.003267269389663</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.1431555941027015</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>121.9420558962533</v>
+      </c>
+      <c r="R81" t="n">
+        <v>191.4179779137407</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>model_18_81_1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9958127537179327</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8055360056619862</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9810096963097228</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9982512651619735</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9971359594604045</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.01757297689949972</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.8161237840061197</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01209508665833535</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01573549364961414</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.01391530068260665</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2898969879079349</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1325631053479803</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.003045270023322</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.1382065911861019</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>122.0827859206307</v>
+      </c>
+      <c r="R82" t="n">
+        <v>191.5587079381181</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>14</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>model_18_81_2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9960575823301712</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8058929461209465</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9788873187039523</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9982254879689403</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9969729872549783</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01654548358829182</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8146257812574712</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01344684708735087</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01596744239819438</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01470712161183604</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.2774060755288719</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.1286292485723672</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.002867212850785</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.1341052619833448</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>122.2032842187379</v>
+      </c>
+      <c r="R83" t="n">
+        <v>191.6792062362253</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>15</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>model_18_81_3</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9962494939442972</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8061854111739981</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9765264136163484</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9981493127687114</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9967477063012076</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.01574007159802412</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.8133983679946792</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0149505277073345</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0166528832971769</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.01580167742082136</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.2654042981024609</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.1254594420441288</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.002727640767784</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.1308005102287953</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>122.3030909744176</v>
+      </c>
+      <c r="R84" t="n">
+        <v>191.779012991905</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>model_18_81_4</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9963951519945176</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8064214077297787</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9739879411924872</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.998029274549287</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9964701551648382</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01512877592078804</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.8124079409350493</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.016567302480774</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01773301311353942</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01715019447705164</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.2572825378618231</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.1229990891055216</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.002621707640351</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.1282354149719588</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>122.3823133171332</v>
+      </c>
+      <c r="R85" t="n">
+        <v>191.8582353346206</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>model_18_81_5</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9965004695655684</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8066080070520731</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9713215249424187</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9978714585064566</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9961492396261079</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.01468678060488968</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.8116248234971795</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01826556577017493</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.01915307594168472</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01870940292868284</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.249832120198779</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1211890284014592</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.002545113043223</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.1263482962363823</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>122.4416149367399</v>
+      </c>
+      <c r="R86" t="n">
+        <v>191.9175369542273</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>18</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>model_18_91_0</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.996605412989813</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.808436448169763</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9952695413143946</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9854444590463016</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.99450041514509</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.01424635550309832</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.8039512472709927</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.005318411367729045</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.01364947217263195</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.009483933450364376</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.2273798140219529</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.1193580977692688</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.002468790552863</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.1244394190966306</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>122.5025083182934</v>
+      </c>
+      <c r="R87" t="n">
+        <v>191.9784303357808</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>model_18_91_1</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9967889480007543</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8088430110382699</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9946092753495154</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9840773996526512</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9939134991545658</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.01347609832445205</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.8022449898848285</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.006060742343797775</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01493143340040931</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.01049605933657859</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.2337009450309634</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.1160865983843615</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.002335310544906</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.1210286452099705</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>122.6136753144011</v>
+      </c>
+      <c r="R88" t="n">
+        <v>192.0895973318886</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>model_18_91_2</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9969269464829993</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8091917340181218</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9937497494438521</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9823872300629125</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9931737333581762</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0128969482154553</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.8007814741380939</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.007027099446005972</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.01651639151742832</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.01177177191614749</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.2399291394297565</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.1135647313889981</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.002234948012364</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.1183994171156302</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>122.701529136095</v>
+      </c>
+      <c r="R89" t="n">
+        <v>192.1774511535824</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>21</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>model_18_91_3</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9970247053407749</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.8094885379432667</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9927188174776828</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9804184964214804</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9923023802015519</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.01248667520219348</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.7995358515573089</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.008186166811907418</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.01836257333502848</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.01327440449064276</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.2460434187868744</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.11174379267858</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.002163850661255</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.1165009572744468</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>122.7661863741265</v>
+      </c>
+      <c r="R90" t="n">
+        <v>192.2421083916139</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>22</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>model_18_91_4</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.997086992744733</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.809738865100284</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9915415695325174</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9782124333312405</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9913188251219079</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0122252682924608</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.798485282029927</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.009509735892693494</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.02043131106570336</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.01497052722830424</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.2520278211265191</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.1105679351912696</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.002118550731103</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.115275041099541</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>122.8085005952969</v>
+      </c>
+      <c r="R91" t="n">
+        <v>192.2844226127843</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>24</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>model_18_91_5</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9971181646692575</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.8099476859800461</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9902412621304929</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9758073845632105</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9902409774595949</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01209444639360835</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.7976089054690573</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01097165959356279</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.02268664780224065</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.01682925579940371</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.2578706785559491</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.109974753437361</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.00209588024054</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.114656606370313</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>122.8300178149518</v>
+      </c>
+      <c r="R92" t="n">
+        <v>192.3059398324392</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>25</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>model_18_91_6</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9971221847446415</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8101195676578362</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9888385366640868</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9732372924748729</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.9890849722460696</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01207757499720624</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.7968875548367362</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01254873098603439</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.02509675406709594</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.01882276563743464</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2635587710862931</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.109898020897586</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.002092956549352</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.1145766071674615</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>122.8328097037838</v>
+      </c>
+      <c r="R93" t="n">
+        <v>192.3087317212712</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>26</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>model_18_91_7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9971026310878232</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8102586110834382</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9873526435087699</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9705333414610592</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9878654634192051</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.01215963751190521</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.7963040193240067</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01421930704930608</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.02763238666478598</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0209257862946736</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.2690892204628884</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.1102707464013244</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.002107177390674</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.1149652003675423</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>122.8192664255293</v>
+      </c>
+      <c r="R94" t="n">
+        <v>192.2951884430167</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>26</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>model_40_9_1</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9956085908484588</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8438718296491333</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9964641532284624</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9845542742499548</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9874294048810657</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.01842980478764323</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.6552365316286901</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.002480267483518083</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.03452187739315</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.01850107243833404</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.3098402451066902</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.1357564171140474</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.000688848494359</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.1415358488451172</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>361.987572198908</v>
+      </c>
+      <c r="R95" t="n">
+        <v>577.7285932005794</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Hidden Size=[44], regularizer=0.05, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>model_18_91_8</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9970627558043401</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8103686186903765</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9858003725003766</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9677247469182649</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9865957745173133</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.01232698554646213</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.7958423409307929</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01596451112474953</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.03026614882986277</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.02311534157309762</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.2744485360681143</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.1110269586472679</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.002136177596844</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.1157536061343706</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>122.791928945848</v>
+      </c>
+      <c r="R96" t="n">
+        <v>192.2678509633355</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>30</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>model_22_8_8</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9959712532577112</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8144822750264802</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9968484912432142</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9969816141505782</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9968880512272921</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01690778823767258</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.7785782052919549</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.04487758636061782</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.004923288248284846</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.02490043730445133</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.1623070967353369</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1300299513099677</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.001487537258691</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.1355655955363394</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>186.1599618414851</v>
+      </c>
+      <c r="R97" t="n">
+        <v>294.6399102547549</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>31</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>model_22_8_9</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9959678971813701</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8146528457578562</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9964421110767484</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9964937885779492</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9964767215529517</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0169218729721357</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7778623564212928</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.05066445304043982</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.005718980392613237</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.02819171537984796</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.1570570065974668</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.1300840996130415</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.00148877642534</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.1356220490447774</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>186.1582964703554</v>
+      </c>
+      <c r="R98" t="n">
+        <v>294.6382448836252</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>model_22_8_7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9959377216677717</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8142673246428423</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.997248009029576</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9974592808850673</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9972922392971812</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.01704851314748547</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.779480306069352</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03918844019484929</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.004144166181781182</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.02166630318831524</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.1678988986506269</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.1305699549953414</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.001499918153438</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.1361285882965611</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>186.1433845689626</v>
+      </c>
+      <c r="R99" t="n">
+        <v>294.6233329822324</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>model_22_8_10</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9959337346010855</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8147852988944646</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9960325917043189</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9960005673423479</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9960620484104359</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.01706524601344462</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7773064789416579</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.05649602211445248</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.00652347340118785</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.03150974640838245</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.1521271151234549</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.1306340155298176</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.001501390301138</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.1361953760206136</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>186.1414225609385</v>
+      </c>
+      <c r="R100" t="n">
+        <v>294.6213709742084</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>model_22_8_11</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9958741201129941</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8148850555914591</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9956231339744159</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9955061758503057</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9956473106718872</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01731543526708154</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.7768878214245778</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.06232671339689902</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.007329875214690276</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.03482829430579465</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.1474983211122383</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1315881273788845</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.001523401804433</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.1371901063863791</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>186.1123139265858</v>
+      </c>
+      <c r="R101" t="n">
+        <v>294.5922623398556</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
